--- a/簡単な設計書/ShopAreaWikiデータベース.xlsx
+++ b/簡単な設計書/ShopAreaWikiデータベース.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -567,6 +567,18 @@
     <rPh sb="2" eb="4">
       <t>ジュンジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -925,8 +937,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1113,6 +1127,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,35 +1166,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1190,6 +1204,7 @@
     <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1227,6 +1242,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1555,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1579,12 +1595,12 @@
       <c r="B1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1">
       <c r="A2" s="39" t="s">
@@ -1593,50 +1609,50 @@
       <c r="B2" s="40">
         <v>42240</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="19" thickBot="1"/>
     <row r="4" spans="1:12" ht="19" thickBot="1">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="48" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:12" ht="19" thickBot="1"/>
     <row r="7" spans="1:12">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="34" t="s">
         <v>2</v>
       </c>
@@ -1774,13 +1790,13 @@
       <c r="B13" s="19"/>
       <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1793,146 +1809,144 @@
       <c r="B14" s="19"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="19" thickBot="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+    <row r="15" spans="1:12">
+      <c r="B15" s="19"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="19" thickBot="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="19" thickBot="1"/>
-    <row r="17" spans="2:12">
-      <c r="B17" s="44" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="2:12" ht="19" thickBot="1"/>
+    <row r="18" spans="2:12">
+      <c r="B18" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="34" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L18" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="19" t="s">
+    <row r="19" spans="2:12">
+      <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="19"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="8"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="19"/>
       <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="20"/>
     </row>
@@ -1940,142 +1954,140 @@
       <c r="B21" s="19"/>
       <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="H21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="K21" s="8"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="2:12" ht="19" thickBot="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
+    <row r="22" spans="2:12">
+      <c r="B22" s="19"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" ht="19" thickBot="1">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="24" spans="2:12" ht="19" thickBot="1">
-      <c r="B24" s="46" t="s">
+      <c r="J23" s="29"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="25" spans="2:12" ht="19" thickBot="1">
+      <c r="B25" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="44" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="34" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G26" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H26" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I26" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J26" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L26" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="19" t="s">
+    <row r="27" spans="2:12">
+      <c r="B27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="19"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="8"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="19"/>
       <c r="C28" s="7"/>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>35</v>
@@ -2085,53 +2097,53 @@
         <v>27</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="18" t="s">
-        <v>81</v>
+      <c r="J28" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="2:12" ht="44">
+    <row r="29" spans="2:12">
       <c r="B29" s="19"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="8"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" ht="44">
       <c r="B30" s="19"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
+      <c r="D30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="8" t="s">
-        <v>60</v>
+      <c r="K30" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2139,13 +2151,13 @@
       <c r="B31" s="19"/>
       <c r="C31" s="7"/>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
@@ -2162,143 +2174,166 @@
       <c r="B32" s="19"/>
       <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="6" t="b">
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="19"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="20" t="s">
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="21"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="4" t="s">
+    <row r="34" spans="2:12">
+      <c r="B34" s="21"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="19"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="19"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="21"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="4" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="21"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="14" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="19"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="15" t="s">
+    <row r="37" spans="2:12">
+      <c r="B37" s="19"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="6" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="2:12" ht="19" thickBot="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24" t="s">
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="2:12" ht="19" thickBot="1">
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E38" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="26" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="27"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/簡単な設計書/ShopAreaWikiデータベース.xlsx
+++ b/簡単な設計書/ShopAreaWikiデータベース.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -329,9 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(メンターに相談)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,103 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>最上位の場合は、親ブロックはない
-そのときはNULL??</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(メンターに相談)
-子を記録したほうが良い？</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>サイジョウイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>店テーブルのID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(制約まだ)</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>店テーブルのID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(制約まだ)</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ミセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>階層テーブルのID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(制約まだ)</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>カイソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -530,13 +430,6 @@
   </si>
   <si>
     <t>color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓このテーブル、アホ（メンター相談）</t>
-    <rPh sb="15" eb="17">
-      <t>ソウダン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -581,12 +474,51 @@
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店テーブルのID</t>
+    <rPh sb="0" eb="1">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層テーブルのID</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最上位の場合は、親ブロックはない
+そのときはNULL??</t>
+    <rPh sb="0" eb="3">
+      <t>サイジョウイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,14 +585,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -682,13 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +938,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1038,45 +962,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1101,6 +994,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,61 +1076,61 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -1573,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1589,94 +1555,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="27">
         <v>42240</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="19" thickBot="1"/>
     <row r="4" spans="1:12" ht="19" thickBot="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="47" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="19" thickBot="1"/>
     <row r="7" spans="1:12">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1702,10 +1668,10 @@
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="19"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1723,37 +1689,37 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="19"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="19"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>29</v>
@@ -1765,73 +1731,75 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="19"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="19"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="19"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="19"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="7"/>
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1839,67 +1807,67 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="20"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="19" thickBot="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="27"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="19" thickBot="1"/>
     <row r="18" spans="2:12">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1925,10 +1893,10 @@
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="19"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
         <v>33</v>
@@ -1945,13 +1913,13 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="19"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
         <v>34</v>
@@ -1969,10 +1937,10 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="20"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="19"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -1986,354 +1954,353 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="19" thickBot="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="25" spans="2:12" s="42" customFormat="1" ht="19" thickBot="1">
+      <c r="B25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="2:12" s="42" customFormat="1">
+      <c r="B26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="42" customFormat="1">
+      <c r="B27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="2:12" s="42" customFormat="1">
+      <c r="B28" s="49"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="2:12" s="42" customFormat="1">
+      <c r="B29" s="49"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="2:12" s="42" customFormat="1" ht="31">
+      <c r="B30" s="49"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="2:12" s="42" customFormat="1">
+      <c r="B31" s="49"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="2:12" s="42" customFormat="1">
+      <c r="B32" s="49"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="2:12" s="42" customFormat="1">
+      <c r="B33" s="49"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="42" customFormat="1">
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="2:12" s="42" customFormat="1">
+      <c r="B35" s="49"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32" t="s">
+      <c r="F35" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="2:12" s="42" customFormat="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
+    </row>
+    <row r="37" spans="2:12" s="42" customFormat="1">
+      <c r="B37" s="49"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="54"/>
+    </row>
+    <row r="38" spans="2:12" s="42" customFormat="1" ht="19" thickBot="1">
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="25" spans="2:12" ht="19" thickBot="1">
-      <c r="B25" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="19"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="19"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="2:12" ht="44">
-      <c r="B30" s="19"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="19"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="19"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="19"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="21"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="19"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="21"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="19"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="2:12" ht="19" thickBot="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="27"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/簡単な設計書/ShopAreaWikiデータベース.xlsx
+++ b/簡単な設計書/ShopAreaWikiデータベース.xlsx
@@ -1024,48 +1024,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,6 +1092,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -1539,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1561,12 +1561,12 @@
       <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1">
       <c r="A2" s="26" t="s">
@@ -1575,28 +1575,28 @@
       <c r="B2" s="27">
         <v>42240</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="19" thickBot="1"/>
     <row r="4" spans="1:12" ht="19" thickBot="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="34" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="29"/>
@@ -1611,14 +1611,14 @@
     </row>
     <row r="6" spans="1:12" ht="19" thickBot="1"/>
     <row r="7" spans="1:12">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="21" t="s">
         <v>2</v>
       </c>
@@ -1836,14 +1836,14 @@
     </row>
     <row r="17" spans="2:12" ht="19" thickBot="1"/>
     <row r="18" spans="2:12">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="21" t="s">
         <v>2</v>
       </c>
@@ -1981,326 +1981,326 @@
       <c r="K23" s="20"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="25" spans="2:12" s="42" customFormat="1" ht="19" thickBot="1">
-      <c r="B25" s="40" t="s">
+    <row r="25" spans="2:12" s="31" customFormat="1" ht="19" thickBot="1">
+      <c r="B25" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="L25" s="43"/>
-    </row>
-    <row r="26" spans="2:12" s="42" customFormat="1">
-      <c r="B26" s="44" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="2:12" s="31" customFormat="1">
+      <c r="B26" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="70"/>
+      <c r="D26" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46" t="s">
+      <c r="E26" s="70"/>
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="42" customFormat="1">
-      <c r="B27" s="49" t="s">
+    <row r="27" spans="2:12" s="31" customFormat="1">
+      <c r="B27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51" t="s">
+      <c r="I27" s="40"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="54"/>
-    </row>
-    <row r="28" spans="2:12" s="42" customFormat="1">
-      <c r="B28" s="49"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="50" t="s">
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="2:12" s="31" customFormat="1">
+      <c r="B28" s="36"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="55" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="54"/>
-    </row>
-    <row r="29" spans="2:12" s="42" customFormat="1">
-      <c r="B29" s="49"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="50" t="s">
+      <c r="K28" s="43"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="2:12" s="31" customFormat="1">
+      <c r="B29" s="36"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="57" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="54"/>
-    </row>
-    <row r="30" spans="2:12" s="42" customFormat="1" ht="31">
-      <c r="B30" s="49"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="50" t="s">
+      <c r="K29" s="43"/>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="2:12" s="31" customFormat="1" ht="31">
+      <c r="B30" s="36"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55" t="s">
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="54"/>
-    </row>
-    <row r="31" spans="2:12" s="42" customFormat="1">
-      <c r="B31" s="49"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="50" t="s">
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="2:12" s="31" customFormat="1">
+      <c r="B31" s="36"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52" t="s">
+      <c r="G31" s="39"/>
+      <c r="H31" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="56" t="s">
+      <c r="I31" s="40"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="54"/>
-    </row>
-    <row r="32" spans="2:12" s="42" customFormat="1">
-      <c r="B32" s="49"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="50" t="s">
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" spans="2:12" s="31" customFormat="1">
+      <c r="B32" s="36"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52" t="s">
+      <c r="G32" s="39"/>
+      <c r="H32" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="54"/>
-    </row>
-    <row r="33" spans="2:12" s="42" customFormat="1">
-      <c r="B33" s="49"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="50" t="s">
+      <c r="L32" s="41"/>
+    </row>
+    <row r="33" spans="2:12" s="31" customFormat="1">
+      <c r="B33" s="36"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52" t="s">
+      <c r="G33" s="39"/>
+      <c r="H33" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="53" t="b">
+      <c r="I33" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="54" t="s">
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="42" customFormat="1">
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="50" t="s">
+    <row r="34" spans="2:12" s="31" customFormat="1">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="54"/>
-    </row>
-    <row r="35" spans="2:12" s="42" customFormat="1">
-      <c r="B35" s="49"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="50" t="s">
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" spans="2:12" s="31" customFormat="1">
+      <c r="B35" s="36"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="54"/>
-    </row>
-    <row r="36" spans="2:12" s="42" customFormat="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="50" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" spans="2:12" s="31" customFormat="1">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="59"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
-    </row>
-    <row r="37" spans="2:12" s="42" customFormat="1">
-      <c r="B37" s="49"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="64" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="2:12" s="31" customFormat="1">
+      <c r="B37" s="36"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="54"/>
-    </row>
-    <row r="38" spans="2:12" s="42" customFormat="1" ht="19" thickBot="1">
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69" t="s">
+      <c r="J37" s="42"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" spans="2:12" s="31" customFormat="1" ht="19" thickBot="1">
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="71" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="72"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
